--- a/Acetone/Acetone_AVE_MOL_FRAC.xlsx
+++ b/Acetone/Acetone_AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3E6A8065-B482-42B2-969F-B7DE95030A73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8A5A8050-1286-4918-99FA-F62258672AC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{9EDCC1A8-6B9E-4FF2-8746-781D7568864C}"/>
+    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{9EDCC1A8-6B9E-4FF2-8746-781D7568864C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,25 +527,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8FE894-3BF8-4F00-B851-C7B3CD0EE38F}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
@@ -614,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.8999999999999997E-2</v>
+        <v>6.3902444227699945E-2</v>
       </c>
       <c r="C2">
-        <v>1.4800000000000001E-2</v>
+        <v>1.6241621972251121E-2</v>
       </c>
       <c r="D2">
-        <v>6.1600000000000002E-2</v>
+        <v>7.4087684008064036E-2</v>
       </c>
       <c r="E2">
-        <v>2.8E-3</v>
+        <v>3.1625458479399267E-3</v>
       </c>
       <c r="F2">
-        <v>2.9999999999999997E-4</v>
+        <v>4.2207656109298936E-4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -635,34 +631,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.26619999999999999</v>
+        <v>0.28268351293944477</v>
       </c>
       <c r="J2">
-        <v>7.22E-2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.5600000000000001E-2</v>
+        <v>2.8812979918127726E-2</v>
       </c>
       <c r="L2">
-        <v>0.39900000000000002</v>
+        <v>0.44743505666942612</v>
       </c>
       <c r="M2">
-        <v>5.9400000000000001E-2</v>
+        <v>5.3274293271724012E-2</v>
       </c>
       <c r="N2">
-        <v>2.8400000000000002E-2</v>
+        <v>1.8747842139205901E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.9180051536347881E-4</v>
       </c>
       <c r="Q2">
-        <v>4.0000000000000001E-3</v>
+        <v>2.5544653754275967E-3</v>
       </c>
       <c r="R2">
-        <v>6.1000000000000004E-3</v>
+        <v>4.2389428677166267E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -670,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.0699999999999999E-2</v>
+        <v>7.317765439120863E-2</v>
       </c>
       <c r="C3">
-        <v>1.9400000000000001E-2</v>
+        <v>1.8984950335569802E-2</v>
       </c>
       <c r="D3">
-        <v>6.3299999999999995E-2</v>
+        <v>7.8230233120104603E-2</v>
       </c>
       <c r="E3">
-        <v>3.5000000000000001E-3</v>
+        <v>3.6947952889492411E-3</v>
       </c>
       <c r="F3">
-        <v>2.0000000000000001E-4</v>
+        <v>1.0521215344083711E-4</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -691,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.32979999999999998</v>
+        <v>0.33180361173579154</v>
       </c>
       <c r="J3">
-        <v>1.41E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.4428478132558941E-2</v>
       </c>
       <c r="L3">
-        <v>0.34449999999999997</v>
+        <v>0.36125922864790383</v>
       </c>
       <c r="M3">
-        <v>7.4399999999999994E-2</v>
+        <v>6.3969691643018078E-2</v>
       </c>
       <c r="N3">
-        <v>3.3000000000000002E-2</v>
+        <v>2.1366410291148101E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9427395766145407E-4</v>
       </c>
       <c r="Q3">
-        <v>5.1000000000000004E-3</v>
+        <v>3.1079338961851341E-3</v>
       </c>
       <c r="R3">
-        <v>7.7999999999999996E-3</v>
+        <v>5.2332428046997529E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -726,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.1100000000000005E-2</v>
+        <v>8.5028770002371717E-2</v>
       </c>
       <c r="C4">
-        <v>2.1700000000000001E-2</v>
+        <v>2.2491051741455888E-2</v>
       </c>
       <c r="D4">
-        <v>6.7599999999999993E-2</v>
+        <v>8.0224441017128223E-2</v>
       </c>
       <c r="E4">
-        <v>4.3E-3</v>
+        <v>4.6125864830818541E-3</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000002E-4</v>
+        <v>2.675332108590013E-4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -747,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.39560000000000001</v>
+        <v>0.40407672012150736</v>
       </c>
       <c r="J4">
-        <v>1.38E-2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.8800000000000001E-2</v>
+        <v>4.1479871693055788E-2</v>
       </c>
       <c r="L4">
-        <v>0.2359</v>
+        <v>0.24922666530611251</v>
       </c>
       <c r="M4">
-        <v>8.6800000000000002E-2</v>
+        <v>7.2850230073154623E-2</v>
       </c>
       <c r="N4">
-        <v>3.8199999999999998E-2</v>
+        <v>2.4923145046467948E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.2999999999999999E-3</v>
+        <v>8.728418448437895E-4</v>
       </c>
       <c r="Q4">
-        <v>5.1999999999999998E-3</v>
+        <v>3.2647012482260851E-3</v>
       </c>
       <c r="R4">
-        <v>9.1000000000000004E-3</v>
+        <v>5.9660205155441532E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -782,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.01E-2</v>
+        <v>9.1880750646088249E-2</v>
       </c>
       <c r="C5">
-        <v>2.4E-2</v>
+        <v>2.3575810100851267E-2</v>
       </c>
       <c r="D5">
-        <v>7.6700000000000004E-2</v>
+        <v>9.8902484975638152E-2</v>
       </c>
       <c r="E5">
-        <v>5.1999999999999998E-3</v>
+        <v>5.4842503148744021E-3</v>
       </c>
       <c r="F5">
-        <v>2E-3</v>
+        <v>1.9061194423588348E-3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -803,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.48449999999999999</v>
+        <v>0.47616401561997568</v>
       </c>
       <c r="J5">
-        <v>9.4000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.3400000000000001E-2</v>
+        <v>4.3593033182562142E-2</v>
       </c>
       <c r="L5">
-        <v>0.1104</v>
+        <v>0.13710561831504647</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>8.1129922845715394E-2</v>
       </c>
       <c r="N5">
-        <v>3.7600000000000001E-2</v>
+        <v>2.4178326009975555E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.5E-3</v>
+        <v>1.0047388750686469E-3</v>
       </c>
       <c r="Q5">
-        <v>5.3E-3</v>
+        <v>3.3590298088656567E-3</v>
       </c>
       <c r="R5">
-        <v>9.7999999999999997E-3</v>
+        <v>6.55861931268081E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -838,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8.9800000000000005E-2</v>
+        <v>9.0332701741081656E-2</v>
       </c>
       <c r="C6">
-        <v>2.29E-2</v>
+        <v>2.3612480187998941E-2</v>
       </c>
       <c r="D6">
-        <v>7.9399999999999998E-2</v>
+        <v>0.105379837374073</v>
       </c>
       <c r="E6">
-        <v>6.4000000000000003E-3</v>
+        <v>6.6187779966517752E-3</v>
       </c>
       <c r="F6">
-        <v>1.32E-2</v>
+        <v>1.2704339654622499E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -859,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.57140000000000002</v>
+        <v>0.56465399976550479</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.5499999999999997E-2</v>
+        <v>3.6586686463859236E-2</v>
       </c>
       <c r="L6">
-        <v>5.5199999999999999E-2</v>
+        <v>5.6700351679686414E-2</v>
       </c>
       <c r="M6">
-        <v>8.72E-2</v>
+        <v>7.5407505053147236E-2</v>
       </c>
       <c r="N6">
-        <v>2.6100000000000002E-2</v>
+        <v>1.6168279200491766E-2</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.1999999999999999E-3</v>
+        <v>6.994668114415145E-4</v>
       </c>
       <c r="Q6">
-        <v>4.1000000000000003E-3</v>
+        <v>2.4178019981812848E-3</v>
       </c>
       <c r="R6">
-        <v>7.7000000000000002E-3</v>
+        <v>5.0725557781330349E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -894,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>8.5099999999999995E-2</v>
+        <v>8.4908843610333906E-2</v>
       </c>
       <c r="C7">
-        <v>1.8599999999999998E-2</v>
+        <v>1.930616793948467E-2</v>
       </c>
       <c r="D7">
-        <v>7.4200000000000002E-2</v>
+        <v>9.2983007607927978E-2</v>
       </c>
       <c r="E7">
-        <v>6.7000000000000002E-3</v>
+        <v>7.3864834087859627E-3</v>
       </c>
       <c r="F7">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4515027299949275E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -915,34 +911,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.61880000000000002</v>
+        <v>0.61826013553544468</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.1300000000000001E-2</v>
+        <v>3.2200827100959499E-2</v>
       </c>
       <c r="L7">
-        <v>3.1699999999999999E-2</v>
+        <v>3.2846004525550157E-2</v>
       </c>
       <c r="M7">
-        <v>7.8700000000000006E-2</v>
+        <v>6.4074089141249374E-2</v>
       </c>
       <c r="N7">
-        <v>1.9300000000000001E-2</v>
+        <v>1.1929141671808507E-2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1E-3</v>
+        <v>6.0454394561808267E-4</v>
       </c>
       <c r="Q7">
-        <v>3.3999999999999998E-3</v>
+        <v>2.1995862556631581E-3</v>
       </c>
       <c r="R7">
-        <v>6.8999999999999999E-3</v>
+        <v>4.5625754406291505E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -950,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>6.0600000000000001E-2</v>
+        <v>6.1528046721429509E-2</v>
       </c>
       <c r="C8">
-        <v>1.0500000000000001E-2</v>
+        <v>1.1343190256095873E-2</v>
       </c>
       <c r="D8">
-        <v>6.2300000000000001E-2</v>
+        <v>7.3395433854308759E-2</v>
       </c>
       <c r="E8">
-        <v>7.7000000000000002E-3</v>
+        <v>7.8316285508128938E-3</v>
       </c>
       <c r="F8">
-        <v>7.0599999999999996E-2</v>
+        <v>7.0865848798929265E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -971,34 +967,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.70820000000000005</v>
+        <v>0.69955675948574825</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.52E-2</v>
+        <v>1.5332308526312715E-2</v>
       </c>
       <c r="L8">
-        <v>7.3000000000000001E-3</v>
+        <v>7.5036003217062242E-3</v>
       </c>
       <c r="M8">
-        <v>4.3799999999999999E-2</v>
+        <v>4.1355431938027015E-2</v>
       </c>
       <c r="N8">
-        <v>8.6999999999999994E-3</v>
+        <v>3.8459223330251902E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>4.0000000000000002E-4</v>
+        <v>2.274037893062504E-4</v>
       </c>
       <c r="Q8">
-        <v>1.4E-3</v>
+        <v>8.3258222983441485E-4</v>
       </c>
       <c r="R8">
-        <v>3.3E-3</v>
+        <v>2.1379711968113062E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1006,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>4.7100000000000003E-2</v>
+        <v>4.64920890883464E-2</v>
       </c>
       <c r="C9">
-        <v>3.0999999999999999E-3</v>
+        <v>3.0097346497068864E-3</v>
       </c>
       <c r="D9">
-        <v>3.6900000000000002E-2</v>
+        <v>6.2638261520273741E-2</v>
       </c>
       <c r="E9">
-        <v>8.3000000000000001E-3</v>
+        <v>8.2717683032398574E-3</v>
       </c>
       <c r="F9">
-        <v>0.10680000000000001</v>
+        <v>0.10525814334856662</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1027,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.76859999999999995</v>
+        <v>0.73946855686017177</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.3E-3</v>
+        <v>5.2506603346791289E-3</v>
       </c>
       <c r="L9">
-        <v>8.9999999999999998E-4</v>
+        <v>9.2742427326811467E-4</v>
       </c>
       <c r="M9">
-        <v>1.84E-2</v>
+        <v>2.241710683209033E-2</v>
       </c>
       <c r="N9">
-        <v>2.8999999999999998E-3</v>
+        <v>1.4391441999569638E-3</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1E-4</v>
+        <v>8.04595265427168E-5</v>
       </c>
       <c r="Q9">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0849116015506095E-4</v>
       </c>
       <c r="R9">
-        <v>1.1000000000000001E-3</v>
+        <v>6.7371725914882816E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1062,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>2.7300000000000001E-2</v>
+        <v>3.4853944971950962E-2</v>
       </c>
       <c r="C10">
-        <v>8.9999999999999998E-4</v>
+        <v>1.7682679511008695E-3</v>
       </c>
       <c r="D10">
-        <v>1.8599999999999998E-2</v>
+        <v>3.4306942114630548E-2</v>
       </c>
       <c r="E10">
-        <v>8.5000000000000006E-3</v>
+        <v>8.6099404476243629E-3</v>
       </c>
       <c r="F10">
-        <v>0.1547</v>
+        <v>0.14262250856078582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1083,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.78580000000000005</v>
+        <v>0.76387283878711287</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.9999999999999999E-4</v>
+        <v>1.2029208968844898E-3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.0978026957612403E-5</v>
       </c>
       <c r="M10">
-        <v>3.0999999999999999E-3</v>
+        <v>7.7019620115545773E-3</v>
       </c>
       <c r="N10">
-        <v>2.0000000000000001E-4</v>
+        <v>4.040858828536766E-4</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1107,65 +1103,121 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.1343013505167852E-5</v>
       </c>
       <c r="R10">
-        <v>1E-4</v>
+        <v>1.0485860379968217E-4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>2.4082735771999184E-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2.1789360110077542E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.7820341181155948E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.16559802535944848</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.77337304035699905</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1.2288413504372284E-4</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.2818315875735245E-3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B11">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="E11">
-        <v>8.6E-3</v>
-      </c>
-      <c r="F11">
-        <v>0.17910000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.79079999999999995</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1E-4</v>
-      </c>
-      <c r="M11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="B12">
+        <v>1.1871647553437097E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>8.0230112177742553E-3</v>
+      </c>
+      <c r="E12">
+        <v>8.8288798236963329E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.1834112445569453</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.78343918954911396</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2.1611634063988045E-5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.6536977622063793E-4</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>
@@ -1176,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233C04D-CEAB-4289-A471-788C693E964D}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1262,19 +1314,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.5583395802336448E-3</v>
+        <v>3.9051883225644838E-3</v>
       </c>
       <c r="C2">
-        <v>1.2453335310729306E-3</v>
+        <v>1.5939287399413485E-3</v>
       </c>
       <c r="D2">
-        <v>1.2536776442078981E-2</v>
+        <v>1.5702356463980469E-2</v>
       </c>
       <c r="E2">
-        <v>2.2862872355523649E-4</v>
+        <v>3.2475995249141087E-4</v>
       </c>
       <c r="F2">
-        <v>2.0005650625405418E-5</v>
+        <v>5.4952597732516246E-4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1283,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.0461159556375057E-2</v>
+        <v>1.9063352976103422E-2</v>
       </c>
       <c r="J2">
-        <v>0.1226112469133559</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.316220658411014E-3</v>
+        <v>3.1046324992775537E-3</v>
       </c>
       <c r="L2">
-        <v>4.157794149775567E-2</v>
+        <v>5.0795125990180955E-2</v>
       </c>
       <c r="M2">
-        <v>4.5835399029928985E-3</v>
+        <v>1.3424238347915956E-2</v>
       </c>
       <c r="N2">
-        <v>7.0464534827101334E-3</v>
+        <v>4.6670396905245295E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.2322490540720032E-4</v>
+        <v>1.1172540402509614E-4</v>
       </c>
       <c r="Q2">
-        <v>3.440780707159137E-4</v>
+        <v>2.9963480175750393E-4</v>
       </c>
       <c r="R2">
-        <v>5.4801180114714509E-4</v>
+        <v>3.4949448316260259E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1318,19 +1370,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.0080750958517487E-3</v>
+        <v>3.3453216089492513E-3</v>
       </c>
       <c r="C3">
-        <v>1.0331650361507395E-3</v>
+        <v>2.2042532036150304E-3</v>
       </c>
       <c r="D3">
-        <v>2.7150451689081426E-2</v>
+        <v>1.8731667321396132E-2</v>
       </c>
       <c r="E3">
-        <v>1.6288644892361944E-4</v>
+        <v>3.266405692344945E-4</v>
       </c>
       <c r="F3">
-        <v>6.529532252974162E-5</v>
+        <v>3.9572411010258136E-5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1339,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.3726254484121023E-2</v>
+        <v>1.362282579216108E-2</v>
       </c>
       <c r="J3">
-        <v>2.3213684094064962E-2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.0453655574729141E-3</v>
+        <v>2.2251384947170518E-3</v>
       </c>
       <c r="L3">
-        <v>3.0834221693477236E-2</v>
+        <v>3.2648117247153677E-2</v>
       </c>
       <c r="M3">
-        <v>3.0243097210464207E-3</v>
+        <v>1.3586669853922897E-2</v>
       </c>
       <c r="N3">
-        <v>7.8470996410242334E-3</v>
+        <v>5.0586089316195142E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>5.2911831720830734E-4</v>
+        <v>1.6238452969465333E-4</v>
       </c>
       <c r="Q3">
-        <v>2.77062107124309E-4</v>
+        <v>1.7526616117751525E-4</v>
       </c>
       <c r="R3">
-        <v>5.2075893445286011E-4</v>
+        <v>3.6921041998881626E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1374,19 +1426,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.3634824283175057E-3</v>
+        <v>6.2353030477836731E-3</v>
       </c>
       <c r="C4">
-        <v>1.1260716401824339E-3</v>
+        <v>1.7754163967146159E-3</v>
       </c>
       <c r="D4">
-        <v>1.3866080947049912E-2</v>
+        <v>1.8610554390867628E-2</v>
       </c>
       <c r="E4">
-        <v>4.8155783132237376E-4</v>
+        <v>6.3235392800400556E-4</v>
       </c>
       <c r="F4">
-        <v>4.1463351997426333E-4</v>
+        <v>4.235324978525752E-4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1395,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.4821310295840168E-2</v>
+        <v>4.4048509676598568E-2</v>
       </c>
       <c r="J4">
-        <v>2.4738025620072063E-2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.1548398738303501E-3</v>
+        <v>4.0032646411700939E-3</v>
       </c>
       <c r="L4">
-        <v>7.8282285644035929E-2</v>
+        <v>8.6487606115624754E-2</v>
       </c>
       <c r="M4">
-        <v>3.9564274702984957E-3</v>
+        <v>7.4061427761805739E-3</v>
       </c>
       <c r="N4">
-        <v>3.890692274841138E-3</v>
+        <v>3.0138639339904634E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>6.2060579580689877E-4</v>
+        <v>1.9002063747333955E-4</v>
       </c>
       <c r="Q4">
-        <v>3.742426114374618E-4</v>
+        <v>3.6192362925317501E-4</v>
       </c>
       <c r="R4">
-        <v>5.7493621757808051E-4</v>
+        <v>4.9300829932724189E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1430,19 +1482,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.2068541726035247E-3</v>
+        <v>3.6480743197141508E-3</v>
       </c>
       <c r="C5">
-        <v>1.1773593707135523E-3</v>
+        <v>2.9359049521904888E-3</v>
       </c>
       <c r="D5">
-        <v>1.4705497890654966E-2</v>
+        <v>2.0024044825370672E-2</v>
       </c>
       <c r="E5">
-        <v>2.2243717111917693E-4</v>
+        <v>4.2943911763743478E-4</v>
       </c>
       <c r="F5">
-        <v>6.7488169564888282E-5</v>
+        <v>1.0804191587080592E-4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1451,34 +1503,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.6757379993770867E-2</v>
+        <v>2.604442344212694E-2</v>
       </c>
       <c r="J5">
-        <v>2.3761572743652388E-2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.551417376926319E-3</v>
+        <v>2.6947063420411674E-3</v>
       </c>
       <c r="L5">
-        <v>8.6568264132126128E-3</v>
+        <v>4.6491693426603635E-2</v>
       </c>
       <c r="M5">
-        <v>3.5262646160288888E-3</v>
+        <v>3.3962283026039643E-3</v>
       </c>
       <c r="N5">
-        <v>1.8250286075749559E-3</v>
+        <v>1.0610965896440312E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>7.0809255640017497E-4</v>
+        <v>2.0296077428018765E-4</v>
       </c>
       <c r="Q5">
-        <v>2.729821848852265E-4</v>
+        <v>1.8272225864951176E-4</v>
       </c>
       <c r="R5">
-        <v>5.5961359436262318E-4</v>
+        <v>5.3553578139924757E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1486,19 +1538,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.029636905245158E-3</v>
+        <v>6.3957230323079739E-3</v>
       </c>
       <c r="C6">
-        <v>1.0436067068552847E-3</v>
+        <v>2.0526956836822152E-3</v>
       </c>
       <c r="D6">
-        <v>2.2389326735270887E-2</v>
+        <v>3.7286142146936221E-2</v>
       </c>
       <c r="E6">
-        <v>3.8312351711041262E-4</v>
+        <v>8.3982771293025543E-4</v>
       </c>
       <c r="F6">
-        <v>1.2379590902660028E-2</v>
+        <v>1.1942104931022808E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1507,34 +1559,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.1220107083145649E-2</v>
+        <v>5.7091517645546423E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.7276207674062801E-3</v>
+        <v>4.8353957932009244E-3</v>
       </c>
       <c r="L6">
-        <v>1.0295741871677535E-2</v>
+        <v>1.0501302870260413E-2</v>
       </c>
       <c r="M6">
-        <v>8.9530123926098958E-3</v>
+        <v>9.4582140713617719E-3</v>
       </c>
       <c r="N6">
-        <v>6.1715935690329514E-3</v>
+        <v>4.0825555228794002E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>6.0003180000707209E-4</v>
+        <v>1.5399539532464997E-4</v>
       </c>
       <c r="Q6">
-        <v>3.228218233247738E-4</v>
+        <v>3.1198960681457432E-4</v>
       </c>
       <c r="R6">
-        <v>1.0472052499322512E-3</v>
+        <v>7.0384863989069878E-4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1542,19 +1594,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.4355973633277667E-3</v>
+        <v>7.7220627547284126E-3</v>
       </c>
       <c r="C7">
-        <v>3.037115129447526E-3</v>
+        <v>3.0779302655852825E-3</v>
       </c>
       <c r="D7">
-        <v>1.8454668808158842E-2</v>
+        <v>1.9208168459333697E-2</v>
       </c>
       <c r="E7">
-        <v>9.1273163968114753E-4</v>
+        <v>1.4564475489774811E-3</v>
       </c>
       <c r="F7">
-        <v>2.6109625571462708E-2</v>
+        <v>2.660985241353335E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1563,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.7154534357758467E-2</v>
+        <v>9.2075855405763324E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.858446119765326E-3</v>
+        <v>9.8297747384853296E-3</v>
       </c>
       <c r="L7">
-        <v>1.4618962970849985E-2</v>
+        <v>1.5054577039345395E-2</v>
       </c>
       <c r="M7">
-        <v>1.8751067218558678E-2</v>
+        <v>2.2937225056917233E-2</v>
       </c>
       <c r="N7">
-        <v>1.1428818448764293E-2</v>
+        <v>6.6848139947544736E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>6.1232285574317044E-4</v>
+        <v>3.1711865646225198E-4</v>
       </c>
       <c r="Q7">
-        <v>9.5986488148984742E-4</v>
+        <v>5.2550511270755727E-4</v>
       </c>
       <c r="R7">
-        <v>1.9365384327312254E-3</v>
+        <v>1.247313588455931E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1598,19 +1650,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.4679730604263124E-2</v>
+        <v>1.4299429384272283E-2</v>
       </c>
       <c r="C8">
-        <v>3.2305108935010919E-3</v>
+        <v>4.5421862383806626E-3</v>
       </c>
       <c r="D8">
-        <v>1.9546882900264538E-2</v>
+        <v>2.6865482429423545E-2</v>
       </c>
       <c r="E8">
-        <v>6.0379771744667411E-4</v>
+        <v>8.1071881268314819E-4</v>
       </c>
       <c r="F8">
-        <v>3.3746174263374513E-2</v>
+        <v>3.2723835917476712E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1619,34 +1671,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.7569324086123599E-2</v>
+        <v>5.8520467435510537E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.5981142946208108E-3</v>
+        <v>5.6074309618918588E-3</v>
       </c>
       <c r="L8">
-        <v>1.6520603787303911E-3</v>
+        <v>1.6638005082150258E-3</v>
       </c>
       <c r="M8">
-        <v>1.382683260176641E-2</v>
+        <v>2.4866534285208006E-2</v>
       </c>
       <c r="N8">
-        <v>2.0410173557513869E-4</v>
+        <v>1.7187003823948333E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.902236983130395E-4</v>
+        <v>6.630018594903991E-5</v>
       </c>
       <c r="Q8">
-        <v>4.3297006586018891E-4</v>
+        <v>2.5564787570707566E-4</v>
       </c>
       <c r="R8">
-        <v>1.0981211268635564E-3</v>
+        <v>7.1140816542240479E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1654,19 +1706,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>6.5861132463530796E-3</v>
+        <v>6.4893288645100564E-3</v>
       </c>
       <c r="C9">
-        <v>4.4613056084145302E-3</v>
+        <v>4.359085683703981E-3</v>
       </c>
       <c r="D9">
-        <v>2.1005223779032856E-2</v>
+        <v>1.3893086900803476E-2</v>
       </c>
       <c r="E9">
-        <v>3.0709669331409394E-4</v>
+        <v>6.1108688486336481E-4</v>
       </c>
       <c r="F9">
-        <v>8.1262222685437955E-3</v>
+        <v>7.2878010700890578E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1675,34 +1727,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.1308566253422413E-2</v>
+        <v>2.1920691081170746E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.9526267361135235E-3</v>
+        <v>1.9184234814875285E-3</v>
       </c>
       <c r="L9">
-        <v>2.631838477964581E-4</v>
+        <v>2.6139808437222203E-4</v>
       </c>
       <c r="M9">
-        <v>5.6458719924755039E-3</v>
+        <v>7.0870708778316771E-3</v>
       </c>
       <c r="N9">
-        <v>6.3574795409185433E-4</v>
+        <v>1.7691190667002316E-4</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>6.5367514191400056E-5</v>
+        <v>1.973380344126475E-5</v>
       </c>
       <c r="Q9">
-        <v>3.9581126471256237E-5</v>
+        <v>2.2975009648395184E-5</v>
       </c>
       <c r="R9">
-        <v>3.0357129576309407E-4</v>
+        <v>1.9313904426300301E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1710,19 +1762,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.3521787210846218E-2</v>
+        <v>8.0504900108348428E-4</v>
       </c>
       <c r="C10">
-        <v>1.7750062069621536E-3</v>
+        <v>8.3486857023004803E-5</v>
       </c>
       <c r="D10">
-        <v>3.5362883545971978E-3</v>
+        <v>7.3662372093215205E-3</v>
       </c>
       <c r="E10">
-        <v>3.6000739897483545E-4</v>
+        <v>6.071803933355201E-4</v>
       </c>
       <c r="F10">
-        <v>2.610182754538266E-2</v>
+        <v>2.8839684419590186E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1731,22 +1783,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.0536130402123853E-2</v>
+        <v>1.5319452993585697E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.9154393319595948E-4</v>
+        <v>6.2829779448879752E-5</v>
       </c>
       <c r="L10">
-        <v>2.4343547063745274E-5</v>
+        <v>4.4366741564082903E-6</v>
       </c>
       <c r="M10">
-        <v>3.7597308927935225E-3</v>
+        <v>1.7485761311677783E-4</v>
       </c>
       <c r="N10">
-        <v>3.9604201461650472E-6</v>
+        <v>5.5040859480546783E-6</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1755,65 +1807,121 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.6026119414522755E-5</v>
+        <v>9.2711982708410223E-7</v>
       </c>
       <c r="R10">
-        <v>1.2322726497510146E-4</v>
+        <v>5.6661482754194632E-6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>5.4379117846585609E-4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5.0982667074334883E-3</v>
+      </c>
+      <c r="E11">
+        <v>6.1784251879537467E-4</v>
+      </c>
+      <c r="F11">
+        <v>3.250292032297708E-3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1.5047152754159729E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>6.3904868570645601E-6</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.8426050996729106E-5</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B11">
-        <v>3.4784203987522151E-4</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1.1725872971604986E-3</v>
-      </c>
-      <c r="E11">
-        <v>2.8215772734186025E-4</v>
-      </c>
-      <c r="F11">
-        <v>3.8053969427781875E-3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.6997745335046166E-2</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>3.9851363140923888E-6</v>
-      </c>
-      <c r="M11">
-        <v>5.1412574706768703E-6</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="B12">
+        <v>2.6393302972683503E-4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2.3665543647850245E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.2015921913200281E-4</v>
+      </c>
+      <c r="F12">
+        <v>3.5263268003983585E-3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.4925817939563683E-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1.1206507695010665E-6</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3.6086613400187451E-6</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>

--- a/Acetone/Acetone_AVE_MOL_FRAC.xlsx
+++ b/Acetone/Acetone_AVE_MOL_FRAC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8A5A8050-1286-4918-99FA-F62258672AC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B2A7EE19-765A-4B31-B298-37EC887B8D05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{9EDCC1A8-6B9E-4FF2-8746-781D7568864C}"/>
+    <workbookView xWindow="25200" yWindow="-11580" windowWidth="16200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Mole_Fractions" sheetId="4" r:id="rId4"/>
     <sheet name="Uncertainties" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>Position_cm</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>u_ave_x_Ethylene_2</t>
+  </si>
+  <si>
+    <t>ave_x_Toluene</t>
+  </si>
+  <si>
+    <t>u_ave_x_Toluene</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -171,12 +177,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AA932E-859E-44CE-A500-CEBF238224A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -527,102 +565,110 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8FE894-3BF8-4F00-B851-C7B3CD0EE38F}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="16" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="14.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16.42578125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.3902444227699945E-2</v>
+        <v>0.064916418927528571</v>
       </c>
       <c r="C2">
-        <v>1.6241621972251121E-2</v>
+        <v>0.016446199560295739</v>
       </c>
       <c r="D2">
-        <v>7.4087684008064036E-2</v>
+        <v>0.075072273689413105</v>
       </c>
       <c r="E2">
-        <v>3.1625458479399267E-3</v>
+        <v>0.0032023809089182917</v>
       </c>
       <c r="F2">
-        <v>4.2207656109298936E-4</v>
+        <v>0.00042739298854007967</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,54 +677,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.28268351293944477</v>
+        <v>0.28530580451472271</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.8812979918127726E-2</v>
+        <v>0.017528356494674872</v>
       </c>
       <c r="L2">
-        <v>0.44743505666942612</v>
+        <v>0.4530708967878837</v>
       </c>
       <c r="M2">
-        <v>5.3274293271724012E-2</v>
+        <v>0.053945330095566457</v>
       </c>
       <c r="N2">
-        <v>1.8747842139205901E-2</v>
+        <v>0.018983987786015857</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>4.9180051536347881E-4</v>
+        <v>0.00052347358506455235</v>
       </c>
       <c r="Q2">
-        <v>2.5544653754275967E-3</v>
+        <v>0.0023421172656643945</v>
       </c>
       <c r="R2">
-        <v>4.2389428677166267E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0042923361008073875</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.317765439120863E-2</v>
+        <v>0.074521025948114564</v>
       </c>
       <c r="C3">
-        <v>1.8984950335569802E-2</v>
+        <v>0.019271205364186857</v>
       </c>
       <c r="D3">
-        <v>7.8230233120104603E-2</v>
+        <v>0.079468034741781796</v>
       </c>
       <c r="E3">
-        <v>3.6947952889492411E-3</v>
+        <v>0.0037505054020903253</v>
       </c>
       <c r="F3">
-        <v>1.0521215344083711E-4</v>
+        <v>0.00010679854199923286</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,54 +736,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.33180361173579154</v>
+        <v>0.33570243636302233</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.4428478132558941E-2</v>
+        <v>0.020995881013797176</v>
       </c>
       <c r="L3">
-        <v>0.36125922864790383</v>
+        <v>0.36670629429763724</v>
       </c>
       <c r="M3">
-        <v>6.3969691643018078E-2</v>
+        <v>0.064934226476569115</v>
       </c>
       <c r="N3">
-        <v>2.1366410291148101E-2</v>
+        <v>0.021688572966384448</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>6.9427395766145407E-4</v>
+        <v>0.00074079820890179688</v>
       </c>
       <c r="Q3">
-        <v>3.1079338961851341E-3</v>
+        <v>0.002856561934500255</v>
       </c>
       <c r="R3">
-        <v>5.2332428046997529E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0053121496252255184</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.5028770002371717E-2</v>
+        <v>0.086855903975752796</v>
       </c>
       <c r="C4">
-        <v>2.2491051741455888E-2</v>
+        <v>0.022900358759510003</v>
       </c>
       <c r="D4">
-        <v>8.0224441017128223E-2</v>
+        <v>0.081765174560235243</v>
       </c>
       <c r="E4">
-        <v>4.6125864830818541E-3</v>
+        <v>0.0046965293791549284</v>
       </c>
       <c r="F4">
-        <v>2.675332108590013E-4</v>
+        <v>0.00027240195697305139</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,54 +795,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.40407672012150736</v>
+        <v>0.41008163626758082</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.1479871693055788E-2</v>
+        <v>0.025373874578383714</v>
       </c>
       <c r="L4">
-        <v>0.24922666530611251</v>
+        <v>0.2537622568101765</v>
       </c>
       <c r="M4">
-        <v>7.2850230073154623E-2</v>
+        <v>0.074176006687719703</v>
       </c>
       <c r="N4">
-        <v>2.4923145046467948E-2</v>
+        <v>0.025376712905222056</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>8.728418448437895E-4</v>
+        <v>0.00093419537827750998</v>
       </c>
       <c r="Q4">
-        <v>3.2647012482260851E-3</v>
+        <v>0.0030098747534263162</v>
       </c>
       <c r="R4">
-        <v>5.9660205155441532E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0060745940982711048</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.1880750646088249E-2</v>
+        <v>0.093956525169479846</v>
       </c>
       <c r="C5">
-        <v>2.3575810100851267E-2</v>
+        <v>0.024030793432450133</v>
       </c>
       <c r="D5">
-        <v>9.8902484975638152E-2</v>
+        <v>0.10091513454500982</v>
       </c>
       <c r="E5">
-        <v>5.4842503148744021E-3</v>
+        <v>0.0055900894130394251</v>
       </c>
       <c r="F5">
-        <v>1.9061194423588348E-3</v>
+        <v>0.0019429051379764913</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,54 +854,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.47616401561997568</v>
+        <v>0.4837623080060513</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.3593033182562142E-2</v>
+        <v>0.026695338783405478</v>
       </c>
       <c r="L5">
-        <v>0.13710561831504647</v>
+        <v>0.13975158342653368</v>
       </c>
       <c r="M5">
-        <v>8.1129922845715394E-2</v>
+        <v>0.082695627796289514</v>
       </c>
       <c r="N5">
-        <v>2.4178326009975555E-2</v>
+        <v>0.024644937136950346</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.0047388750686469E-3</v>
+        <v>0.0010765255114707072</v>
       </c>
       <c r="Q5">
-        <v>3.3590298088656567E-3</v>
+        <v>0.003100186358521482</v>
       </c>
       <c r="R5">
-        <v>6.55861931268081E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0066851923743405017</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9.0332701741081656E-2</v>
+        <v>0.09213165403227945</v>
       </c>
       <c r="C6">
-        <v>2.3612480187998941E-2</v>
+        <v>0.024005156876543404</v>
       </c>
       <c r="D6">
-        <v>0.105379837374073</v>
+        <v>0.10718878695090853</v>
       </c>
       <c r="E6">
-        <v>6.6187779966517752E-3</v>
+        <v>0.0067288485951337339</v>
       </c>
       <c r="F6">
-        <v>1.2704339654622499E-2</v>
+        <v>0.012915613438062466</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,54 +913,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.56465399976550479</v>
+        <v>0.57216240822600495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.6586686463859236E-2</v>
+        <v>0.022346158952610391</v>
       </c>
       <c r="L6">
-        <v>5.6700351679686414E-2</v>
+        <v>0.057643281272834392</v>
       </c>
       <c r="M6">
-        <v>7.5407505053147236E-2</v>
+        <v>0.076661535512459814</v>
       </c>
       <c r="N6">
-        <v>1.6168279200491766E-2</v>
+        <v>0.016437158466259788</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>6.994668114415145E-4</v>
+        <v>0.00074748019307421126</v>
       </c>
       <c r="Q6">
-        <v>2.4178019981812848E-3</v>
+        <v>0.00222564621913021</v>
       </c>
       <c r="R6">
-        <v>5.0725557781330349E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0051569126262724675</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>8.4908843610333906E-2</v>
+        <v>0.086461477530164463</v>
       </c>
       <c r="C7">
-        <v>1.930616793948467E-2</v>
+        <v>0.019595884899743978</v>
       </c>
       <c r="D7">
-        <v>9.2983007607927978E-2</v>
+        <v>0.094436475959474561</v>
       </c>
       <c r="E7">
-        <v>7.3864834087859627E-3</v>
+        <v>0.0074973282707444478</v>
       </c>
       <c r="F7">
-        <v>2.4515027299949275E-2</v>
+        <v>0.024882910725198423</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,54 +972,57 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.61826013553544468</v>
+        <v>0.62548084597922238</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.2200827100959499E-2</v>
+        <v>0.019635984936578442</v>
       </c>
       <c r="L7">
-        <v>3.2846004525550157E-2</v>
+        <v>0.033338906307904551</v>
       </c>
       <c r="M7">
-        <v>6.4074089141249374E-2</v>
+        <v>0.065035613478734197</v>
       </c>
       <c r="N7">
-        <v>1.1929141671808507E-2</v>
+        <v>0.012108155688183573</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>6.0454394561808267E-4</v>
+        <v>0.0006450097964098944</v>
       </c>
       <c r="Q7">
-        <v>2.1995862556631581E-3</v>
+        <v>0.002021539608239429</v>
       </c>
       <c r="R7">
-        <v>4.5625754406291505E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0046310434810893936</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>6.1528046721429509E-2</v>
+        <v>0.062242362466815859</v>
       </c>
       <c r="C8">
-        <v>1.1343190256095873E-2</v>
+        <v>0.011437924622511952</v>
       </c>
       <c r="D8">
-        <v>7.3395433854308759E-2</v>
+        <v>0.074043905935637713</v>
       </c>
       <c r="E8">
-        <v>7.8316285508128938E-3</v>
+        <v>0.0078970355793486977</v>
       </c>
       <c r="F8">
-        <v>7.0865848798929265E-2</v>
+        <v>0.071457695636981941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,54 +1031,57 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.69955675948574825</v>
+        <v>0.70308679445127464</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.5332308526312715E-2</v>
+        <v>0.0092883041172030587</v>
       </c>
       <c r="L8">
-        <v>7.5036003217062242E-3</v>
+        <v>0.0075662677729494265</v>
       </c>
       <c r="M8">
-        <v>4.1355431938027015E-2</v>
+        <v>0.041700818073149411</v>
       </c>
       <c r="N8">
-        <v>3.8459223330251902E-3</v>
+        <v>0.0038780421341815421</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.274037893062504E-4</v>
+        <v>0.0002410345757125876</v>
       </c>
       <c r="Q8">
-        <v>8.3258222983441485E-4</v>
+        <v>0.00076017154425720248</v>
       </c>
       <c r="R8">
-        <v>2.1379711968113062E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0021558267861272753</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>4.64920890883464E-2</v>
+        <v>0.04684776068168546</v>
       </c>
       <c r="C9">
-        <v>3.0097346497068864E-3</v>
+        <v>0.0030229924101727039</v>
       </c>
       <c r="D9">
-        <v>6.2638261520273741E-2</v>
+        <v>0.062931254015719598</v>
       </c>
       <c r="E9">
-        <v>8.2717683032398574E-3</v>
+        <v>0.0083082051109842955</v>
       </c>
       <c r="F9">
-        <v>0.10525814334856662</v>
+        <v>0.105721801250012</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,54 +1090,57 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.73946855686017177</v>
+        <v>0.74029110405053367</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.2506603346791289E-3</v>
+        <v>0.0031683973137683445</v>
       </c>
       <c r="L9">
-        <v>9.2742427326811467E-4</v>
+        <v>0.00093150954000960926</v>
       </c>
       <c r="M9">
-        <v>2.241710683209033E-2</v>
+        <v>0.022515853288940034</v>
       </c>
       <c r="N9">
-        <v>1.4391441999569638E-3</v>
+        <v>0.0014454835724596691</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>8.04595265427168E-5</v>
+        <v>8.4948547165485325e-05</v>
       </c>
       <c r="Q9">
-        <v>2.0849116015506095E-4</v>
+        <v>0.00018961336785719131</v>
       </c>
       <c r="R9">
-        <v>6.7371725914882816E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00067668495666473798</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>3.4853944971950962E-2</v>
+        <v>0.035067331063489665</v>
       </c>
       <c r="C10">
-        <v>1.7682679511008695E-3</v>
+        <v>0.0017733641370075682</v>
       </c>
       <c r="D10">
-        <v>3.4306942114630548E-2</v>
+        <v>0.034418755237824325</v>
       </c>
       <c r="E10">
-        <v>8.6099404476243629E-3</v>
+        <v>0.0086347544794227737</v>
       </c>
       <c r="F10">
-        <v>0.14262250856078582</v>
+        <v>0.1430335496689232</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,22 +1149,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.76387283878711287</v>
+        <v>0.76356301422304718</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.2029208968844898E-3</v>
+        <v>0.00072477595736352579</v>
       </c>
       <c r="L10">
-        <v>6.0978026957612403E-5</v>
+        <v>6.1153766930395468e-05</v>
       </c>
       <c r="M10">
-        <v>7.7019620115545773E-3</v>
+        <v>0.0077241592301563996</v>
       </c>
       <c r="N10">
-        <v>4.040858828536766E-4</v>
+        <v>0.00040525046697680852</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1103,30 +1173,33 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.1343013505167852E-5</v>
+        <v>1.9381083043765179e-05</v>
       </c>
       <c r="R10">
-        <v>1.0485860379968217E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00010516080852976704</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75</v>
       </c>
       <c r="B11">
-        <v>2.4082735771999184E-2</v>
+        <v>0.024221256628980406</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.1789360110077542E-2</v>
+        <v>0.021856238648518659</v>
       </c>
       <c r="E11">
-        <v>8.7820341181155948E-3</v>
+        <v>0.0088041015629986893</v>
       </c>
       <c r="F11">
-        <v>0.16559802535944848</v>
+        <v>0.16601413912628313</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1135,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.77337304035699905</v>
+        <v>0.7727747483763695</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.2288413504372284E-4</v>
+        <v>7.4012079025836367e-05</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.2818315875735245E-3</v>
+        <v>0.0012850525666232176</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1164,25 +1237,28 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
-        <v>1.1871647553437097E-2</v>
+        <v>0.011940315089001893</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.0230112177742553E-3</v>
+        <v>0.0080542733184548049</v>
       </c>
       <c r="E12">
-        <v>8.8288798236963329E-3</v>
+        <v>0.0088513491348911726</v>
       </c>
       <c r="F12">
-        <v>0.1834112445569453</v>
+        <v>0.18387802226973182</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1191,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.78343918954911396</v>
+        <v>0.78285824216381983</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.1611634063988045E-5</v>
+        <v>1.3016922960497843e-05</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.6536977622063793E-4</v>
+        <v>0.00016579063878059068</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1218,6 +1294,9 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
     </row>
@@ -1228,105 +1307,110 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0233C04D-CEAB-4289-A471-788C693E964D}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="17" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="18.140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="19.42578125" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="19.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.9051883225644838E-3</v>
+        <v>0.0039584737675396669</v>
       </c>
       <c r="C2">
-        <v>1.5939287399413485E-3</v>
+        <v>0.0016128707855842534</v>
       </c>
       <c r="D2">
-        <v>1.5702356463980469E-2</v>
+        <v>0.01589733452920879</v>
       </c>
       <c r="E2">
-        <v>3.2475995249141087E-4</v>
+        <v>0.00032863940569651179</v>
       </c>
       <c r="F2">
-        <v>5.4952597732516246E-4</v>
+        <v>0.0005564455205182377</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1335,54 +1419,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.9063352976103422E-2</v>
+        <v>0.019001065955427103</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.1046324992775537E-3</v>
+        <v>0.0018029216724615956</v>
       </c>
       <c r="L2">
-        <v>5.0795125990180955E-2</v>
+        <v>0.051407910519554727</v>
       </c>
       <c r="M2">
-        <v>1.3424238347915956E-2</v>
+        <v>0.01359187911801582</v>
       </c>
       <c r="N2">
-        <v>4.6670396905245295E-3</v>
+        <v>0.0047253088861572822</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.1172540402509614E-4</v>
+        <v>6.5203385855323149e-05</v>
       </c>
       <c r="Q2">
-        <v>2.9963480175750393E-4</v>
+        <v>0.00026785024341908782</v>
       </c>
       <c r="R2">
-        <v>3.4949448316260259E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00035354405699689046</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.3453216089492513E-3</v>
+        <v>0.0034359704788749393</v>
       </c>
       <c r="C3">
-        <v>2.2042532036150304E-3</v>
+        <v>0.0022407074044752343</v>
       </c>
       <c r="D3">
-        <v>1.8731667321396132E-2</v>
+        <v>0.019021064953052551</v>
       </c>
       <c r="E3">
-        <v>3.266405692344945E-4</v>
+        <v>0.00033238785530461008</v>
       </c>
       <c r="F3">
-        <v>3.9572411010258136E-5</v>
+        <v>4.0174593246408661e-05</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1391,54 +1478,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.362282579216108E-2</v>
+        <v>0.013535630874625847</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.2251384947170518E-3</v>
+        <v>0.0011878017170855104</v>
       </c>
       <c r="L3">
-        <v>3.2648117247153677E-2</v>
+        <v>0.03321903026228723</v>
       </c>
       <c r="M3">
-        <v>1.3586669853922897E-2</v>
+        <v>0.013797460889470198</v>
       </c>
       <c r="N3">
-        <v>5.0586089316195142E-3</v>
+        <v>0.0051366599286032212</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.6238452969465333E-4</v>
+        <v>0.00010111034144775151</v>
       </c>
       <c r="Q3">
-        <v>1.7526616117751525E-4</v>
+        <v>0.00014436276227564821</v>
       </c>
       <c r="R3">
-        <v>3.6921041998881626E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00037623561349823799</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.2353030477836731E-3</v>
+        <v>0.0065102202971849101</v>
       </c>
       <c r="C4">
-        <v>1.7754163967146159E-3</v>
+        <v>0.0018426926123745002</v>
       </c>
       <c r="D4">
-        <v>1.8610554390867628E-2</v>
+        <v>0.018996996699400984</v>
       </c>
       <c r="E4">
-        <v>6.3235392800400556E-4</v>
+        <v>0.00064801754802378117</v>
       </c>
       <c r="F4">
-        <v>4.235324978525752E-4</v>
+        <v>0.00043126116148541055</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1447,54 +1537,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.4048509676598568E-2</v>
+        <v>0.044973993367071828</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.0032646411700939E-3</v>
+        <v>0.0023450853027753835</v>
       </c>
       <c r="L4">
-        <v>8.6487606115624754E-2</v>
+        <v>0.088150509946907971</v>
       </c>
       <c r="M4">
-        <v>7.4061427761805739E-3</v>
+        <v>0.0076292005328473687</v>
       </c>
       <c r="N4">
-        <v>3.0138639339904634E-3</v>
+        <v>0.0030941449485931256</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.9002063747333955E-4</v>
+        <v>0.0001006656178742424</v>
       </c>
       <c r="Q4">
-        <v>3.6192362925317501E-4</v>
+        <v>0.00032788553518032625</v>
       </c>
       <c r="R4">
-        <v>4.9300829932724189E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00051084792693692244</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.6480743197141508E-3</v>
+        <v>0.0037472774339410626</v>
       </c>
       <c r="C5">
-        <v>2.9359049521904888E-3</v>
+        <v>0.0029942043342234418</v>
       </c>
       <c r="D5">
-        <v>2.0024044825370672E-2</v>
+        <v>0.020414870654141198</v>
       </c>
       <c r="E5">
-        <v>4.2943911763743478E-4</v>
+        <v>0.00043833325923717752</v>
       </c>
       <c r="F5">
-        <v>1.0804191587080592E-4</v>
+        <v>0.00011041801971356043</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1503,54 +1596,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.604442344212694E-2</v>
+        <v>0.026095845326373112</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.6947063420411674E-3</v>
+        <v>0.0014183003903433084</v>
       </c>
       <c r="L5">
-        <v>4.6491693426603635E-2</v>
+        <v>0.047392428018073932</v>
       </c>
       <c r="M5">
-        <v>3.3962283026039643E-3</v>
+        <v>0.003478525312628353</v>
       </c>
       <c r="N5">
-        <v>1.0610965896440312E-3</v>
+        <v>0.0010863381477856093</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.0296077428018765E-4</v>
+        <v>7.4811369090726595e-05</v>
       </c>
       <c r="Q5">
-        <v>1.8272225864951176E-4</v>
+        <v>0.00014903762809287548</v>
       </c>
       <c r="R5">
-        <v>5.3553578139924757E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00054656655395815231</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.3957230323079739E-3</v>
+        <v>0.0066901320586186704</v>
       </c>
       <c r="C6">
-        <v>2.0526956836822152E-3</v>
+        <v>0.002122807274235786</v>
       </c>
       <c r="D6">
-        <v>3.7286142146936221E-2</v>
+        <v>0.037948714144050606</v>
       </c>
       <c r="E6">
-        <v>8.3982771293025543E-4</v>
+        <v>0.00086073434263611711</v>
       </c>
       <c r="F6">
-        <v>1.1942104931022808E-2</v>
+        <v>0.012142508068732084</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1559,54 +1655,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.7091517645546423E-2</v>
+        <v>0.058312603713055362</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.8353957932009244E-3</v>
+        <v>0.0028887623694787224</v>
       </c>
       <c r="L6">
-        <v>1.0501302870260413E-2</v>
+        <v>0.010716759795888016</v>
       </c>
       <c r="M6">
-        <v>9.4582140713617719E-3</v>
+        <v>0.0096954860341999759</v>
       </c>
       <c r="N6">
-        <v>4.0825555228794002E-3</v>
+        <v>0.0041589937780408407</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.5399539532464997E-4</v>
+        <v>8.422243775621132e-05</v>
       </c>
       <c r="Q6">
-        <v>3.1198960681457432E-4</v>
+        <v>0.00028368847835559525</v>
       </c>
       <c r="R6">
-        <v>7.0384863989069878E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00072042078933404132</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.7220627547284126E-3</v>
+        <v>0.0080633780969156642</v>
       </c>
       <c r="C7">
-        <v>3.0779302655852825E-3</v>
+        <v>0.0031503812289555909</v>
       </c>
       <c r="D7">
-        <v>1.9208168459333697E-2</v>
+        <v>0.019603117512034886</v>
       </c>
       <c r="E7">
-        <v>1.4564475489774811E-3</v>
+        <v>0.0014864395567788155</v>
       </c>
       <c r="F7">
-        <v>2.660985241353335E-2</v>
+        <v>0.027014089865602005</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1615,54 +1714,57 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.2075855405763324E-2</v>
+        <v>0.093841440758395955</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.8297747384853296E-3</v>
+        <v>0.0059745694186825954</v>
       </c>
       <c r="L7">
-        <v>1.5054577039345395E-2</v>
+        <v>0.015296091622658044</v>
       </c>
       <c r="M7">
-        <v>2.2937225056917233E-2</v>
+        <v>0.023320378787880919</v>
       </c>
       <c r="N7">
-        <v>6.6848139947544736E-3</v>
+        <v>0.0067897637573778548</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>3.1711865646225198E-4</v>
+        <v>0.00031435549002245696</v>
       </c>
       <c r="Q7">
-        <v>5.2550511270755727E-4</v>
+        <v>0.00048193201728574192</v>
       </c>
       <c r="R7">
-        <v>1.247313588455931E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0012696607851624315</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.4299429384272283E-2</v>
+        <v>0.014467129024868068</v>
       </c>
       <c r="C8">
-        <v>4.5421862383806626E-3</v>
+        <v>0.0045803414417887947</v>
       </c>
       <c r="D8">
-        <v>2.6865482429423545E-2</v>
+        <v>0.027091536318414204</v>
       </c>
       <c r="E8">
-        <v>8.1071881268314819E-4</v>
+        <v>0.00081807821347371415</v>
       </c>
       <c r="F8">
-        <v>3.2723835917476712E-2</v>
+        <v>0.032998328279811591</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1671,54 +1773,57 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.8520467435510537E-2</v>
+        <v>0.058463949941062361</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.6074309618918588E-3</v>
+        <v>0.0033838342778702317</v>
       </c>
       <c r="L8">
-        <v>1.6638005082150258E-3</v>
+        <v>0.0016779593297246577</v>
       </c>
       <c r="M8">
-        <v>2.4866534285208006E-2</v>
+        <v>0.02507474615377428</v>
       </c>
       <c r="N8">
-        <v>1.7187003823948333E-3</v>
+        <v>0.0017331213421111816</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>6.630018594903991E-5</v>
+        <v>5.3150730422445771e-05</v>
       </c>
       <c r="Q8">
-        <v>2.5564787570707566E-4</v>
+        <v>0.00023258943611165041</v>
       </c>
       <c r="R8">
-        <v>7.1140816542240479E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00071739959964598268</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>6.4893288645100564E-3</v>
+        <v>0.0065254603178352194</v>
       </c>
       <c r="C9">
-        <v>4.359085683703981E-3</v>
+        <v>0.0043782062539686108</v>
       </c>
       <c r="D9">
-        <v>1.3893086900803476E-2</v>
+        <v>0.013941812719010696</v>
       </c>
       <c r="E9">
-        <v>6.1108688486336481E-4</v>
+        <v>0.00060939729172257472</v>
       </c>
       <c r="F9">
-        <v>7.2878010700890578E-3</v>
+        <v>0.0072603851690990805</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1727,54 +1832,57 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.1920691081170746E-2</v>
+        <v>0.019619358563495632</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.9184234814875285E-3</v>
+        <v>0.0011527382085369127</v>
       </c>
       <c r="L9">
-        <v>2.6139808437222203E-4</v>
+        <v>0.00026242120263442762</v>
       </c>
       <c r="M9">
-        <v>7.0870708778316771E-3</v>
+        <v>0.0071155238321594354</v>
       </c>
       <c r="N9">
-        <v>1.7691190667002316E-4</v>
+        <v>0.00017723413213166148</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.973380344126475E-5</v>
+        <v>1.3134407506375291e-05</v>
       </c>
       <c r="Q9">
-        <v>2.2975009648395184E-5</v>
+        <v>2.0244311645701305e-05</v>
       </c>
       <c r="R9">
-        <v>1.9313904426300301E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00019389815929859899</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>8.0504900108348428E-4</v>
+        <v>0.00076297391493984244</v>
       </c>
       <c r="C10">
-        <v>8.3486857023004803E-5</v>
+        <v>8.2643628235686293e-05</v>
       </c>
       <c r="D10">
-        <v>7.3662372093215205E-3</v>
+        <v>0.0073815068553889857</v>
       </c>
       <c r="E10">
-        <v>6.071803933355201E-4</v>
+        <v>0.0006054097807629685</v>
       </c>
       <c r="F10">
-        <v>2.8839684419590186E-3</v>
+        <v>0.002681830887140229</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1783,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.5319452993585697E-2</v>
+        <v>0.011978797276837984</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.2829779448879752E-5</v>
+        <v>2.948825236845041e-05</v>
       </c>
       <c r="L10">
-        <v>4.4366741564082903E-6</v>
+        <v>4.425298520457305e-06</v>
       </c>
       <c r="M10">
-        <v>1.7485761311677783E-4</v>
+        <v>0.00016532000326760358</v>
       </c>
       <c r="N10">
-        <v>5.5040859480546783E-6</v>
+        <v>4.5883804316246875e-06</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1807,30 +1915,33 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.2711982708410223E-7</v>
+        <v>6.6141179974307951e-07</v>
       </c>
       <c r="R10">
-        <v>5.6661482754194632E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>5.626407649277915e-06</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>75</v>
       </c>
       <c r="B11">
-        <v>5.4379117846585609E-4</v>
+        <v>0.00051270616346454434</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.0982667074334883E-3</v>
+        <v>0.0051067913174490855</v>
       </c>
       <c r="E11">
-        <v>6.1784251879537467E-4</v>
+        <v>0.00061569168288908114</v>
       </c>
       <c r="F11">
-        <v>3.250292032297708E-3</v>
+        <v>0.0029985354972675393</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1839,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.5047152754159729E-2</v>
+        <v>0.011482860234523653</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.3904868570645601E-6</v>
+        <v>2.9881417737121053e-06</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.8426050996729106E-5</v>
+        <v>2.6733134089757137e-05</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1868,25 +1979,28 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
-        <v>2.6393302972683503E-4</v>
+        <v>0.00024784051805342669</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.3665543647850245E-3</v>
+        <v>0.0023704250458303072</v>
       </c>
       <c r="E12">
-        <v>6.2015921913200281E-4</v>
+        <v>0.00061790440612423142</v>
       </c>
       <c r="F12">
-        <v>3.5263268003983585E-3</v>
+        <v>0.0032322937709482313</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1895,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.4925817939563683E-2</v>
+        <v>0.011169574666498561</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.1206507695010665E-6</v>
+        <v>5.2275632423724404e-07</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.6086613400187451E-6</v>
+        <v>3.3796089888623018e-06</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1922,6 +2036,9 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>0</v>
       </c>
     </row>
